--- a/m26/unityProject_import/Assets/public/app/0100_Base/UIControl/state/doc/UITest01Control.xlsx
+++ b/m26/unityProject_import/Assets/public/app/0100_Base/UIControl/state/doc/UITest01Control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A41E9EB-5F46-43C7-BA34-BE956FD40A87}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A9B32A-4786-4A1D-9BEE-CCC97CB4008C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -923,7 +923,7 @@
     <t>100034</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/24 15:04:35
+    <t xml:space="preserve">; The setting was created automatically. 2018/07/24 16:44:32
 ; * pssgEditor version : 0.7.0.b0081ca2ae62b99c38b127566c8ee8eedac0f9a6
 psggfile=@@@
 UITest01Control.psgg
@@ -949,7 +949,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":19,"y":61}},{"Key":"S_END","Value":{"x":1206,"y":104}},{"Key":"S_SETUP","Value":{"x":231,"y":58}},{"Key":"S_BUT01","Value":{"x":300,"y":424}},{"Key":"S_BUT02","Value":{"x":488,"y":429}},{"Key":"S_BUT03","Value":{"x":695,"y":421}},{"Key":"S_BUT04","Value":{"x":911,"y":417}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":70,"y":421}}]},{"Key":"\/CenterPanel\/","Value":[{"Key":"S_END","Value":{"x":916.6471,"y":86.3921661}},{"Key":"S_SETUP","Value":{"x":8,"y":26.3333435}},{"Key":"S_BUT01","Value":{"x":280,"y":258}},{"Key":"S_BUT02","Value":{"x":475,"y":259}},{"Key":"S_BUT03","Value":{"x":660,"y":252}},{"Key":"S_BUT04","Value":{"x":854,"y":261}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":419,"y":37}},{"Key":"S_BUT05","Value":{"x":1043.76477,"y":254.7647}},{"Key":"S_BUT_C","Value":{"x":611,"y":490}},{"Key":"S_BUT_D","Value":{"x":801,"y":477}},{"Key":"S_BUT_A","Value":{"x":263,"y":494}},{"Key":"S_BUT_B","Value":{"x":441,"y":488}},{"Key":"S_BUT_E","Value":{"x":982,"y":475}},{"Key":"S_SETUP_IMPORTED_UI","Value":{"x":210,"y":31}},{"Key":"S_BUTTON_A","Value":{"x":31.333374,"y":327.666656}},{"Key":"S_BUTTON_B","Value":{"x":212,"y":329}},{"Key":"S_BUTTON_C","Value":{"x":396,"y":328}},{"Key":"____altnative_state____Save_old","Value":{"x":974,"y":421}},{"Key":"S_0001","Value":{"x":52,"y":612}},{"Key":"S_TOGGLE_A","Value":{"x":25,"y":585}},{"Key":"S_TOGGLE_A1","Value":{"x":469,"y":612}},{"Key":"S_TOGGLE_B","Value":{"x":191,"y":585}},{"Key":"S_TOGGLE_B1","Value":{"x":541,"y":625}},{"Key":"S_SLIDER_A","Value":{"x":368,"y":591}},{"Key":"S_SLIDER_A1","Value":{"x":699,"y":619}},{"Key":"S_SCROLLBAR","Value":{"x":572,"y":332}},{"Key":"S_SCROLLBAR1","Value":{"x":702,"y":581}},{"Key":"S_INPUTFIELD","Value":{"x":568,"y":597}},{"Key":"S_INPUTFIELD1","Value":{"x":879,"y":616}},{"Key":"S_SCROLL_VIEW","Value":{"x":879,"y":616}}]},{"Key":"\/CenterPanel\/Save\/","Value":[{"Key":"S_END","Value":{"x":50,"y":100}},{"Key":"S_BUT01","Value":{"x":312,"y":100}},{"Key":"S_BUT02","Value":{"x":574,"y":100}},{"Key":"S_BUT03","Value":{"x":836,"y":100}},{"Key":"S_BUT04","Value":{"x":1098,"y":100}},{"Key":"S_BUT05","Value":{"x":1360,"y":100}},{"Key":"S_BUT_C","Value":{"x":1622,"y":100}},{"Key":"S_BUT_D","Value":{"x":1884,"y":100}},{"Key":"S_BUT_B","Value":{"x":2146,"y":100}},{"Key":"S_BUT_A","Value":{"x":2408,"y":100}},{"Key":"S_BUT_E","Value":{"x":2670,"y":100}}]},{"Key":"\/CenterPanel\/Save_old\/","Value":[{"Key":"S_END","Value":{"x":1357.5,"y":595.5}},{"Key":"S_BUT01","Value":{"x":312,"y":100}},{"Key":"S_BUT02","Value":{"x":574,"y":100}},{"Key":"S_BUT03","Value":{"x":836,"y":100}},{"Key":"S_BUT04","Value":{"x":1098,"y":100}},{"Key":"S_BUT05","Value":{"x":1360,"y":100}},{"Key":"S_BUT_C","Value":{"x":616,"y":570}},{"Key":"S_BUT_D","Value":{"x":865.5,"y":587.5}},{"Key":"S_BUT_B","Value":{"x":395,"y":582.5}},{"Key":"S_BUT_A","Value":{"x":167,"y":582.5}},{"Key":"S_BUT_E","Value":{"x":1079,"y":592.5}},{"Key":"S_BUTTON_C","Value":{"x":89.5,"y":135}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":19,"y":61}},{"Key":"S_END","Value":{"x":1206,"y":104}},{"Key":"S_SETUP","Value":{"x":231,"y":58}},{"Key":"S_BUT01","Value":{"x":300,"y":424}},{"Key":"S_BUT02","Value":{"x":488,"y":429}},{"Key":"S_BUT03","Value":{"x":695,"y":421}},{"Key":"S_BUT04","Value":{"x":911,"y":417}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":70,"y":421}}]},{"Key":"\/CenterPanel\/","Value":[{"Key":"S_END","Value":{"x":916.6471,"y":86.3921661}},{"Key":"S_SETUP","Value":{"x":8,"y":26.3333435}},{"Key":"S_BUT01","Value":{"x":280,"y":258}},{"Key":"S_BUT02","Value":{"x":475,"y":259}},{"Key":"S_BUT03","Value":{"x":660,"y":252}},{"Key":"S_BUT04","Value":{"x":854,"y":261}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":419,"y":37}},{"Key":"S_BUT05","Value":{"x":1043.76477,"y":254.7647}},{"Key":"S_BUT_C","Value":{"x":611,"y":490}},{"Key":"S_BUT_D","Value":{"x":801,"y":477}},{"Key":"S_BUT_A","Value":{"x":263,"y":494}},{"Key":"S_BUT_B","Value":{"x":441,"y":488}},{"Key":"S_BUT_E","Value":{"x":982,"y":475}},{"Key":"S_SETUP_IMPORTED_UI","Value":{"x":210,"y":31}},{"Key":"S_BUTTON_A","Value":{"x":31.333374,"y":327.666656}},{"Key":"S_BUTTON_B","Value":{"x":212,"y":329}},{"Key":"S_BUTTON_C","Value":{"x":396,"y":328}},{"Key":"S_TOGGLE_A","Value":{"x":25,"y":585}},{"Key":"S_TOGGLE_B","Value":{"x":191,"y":585}},{"Key":"S_SLIDER_A","Value":{"x":368,"y":591}},{"Key":"S_SCROLLBAR","Value":{"x":572,"y":332}},{"Key":"S_INPUTFIELD","Value":{"x":568,"y":597}},{"Key":"S_SCROLL_VIEW","Value":{"x":879,"y":616}},{"Key":"____altnative_state____Save_old","Value":{"x":974,"y":421}}]},{"Key":"\/CenterPanel\/Save\/","Value":[{"Key":"S_END","Value":{"x":50,"y":100}},{"Key":"S_BUT01","Value":{"x":312,"y":100}},{"Key":"S_BUT02","Value":{"x":574,"y":100}},{"Key":"S_BUT03","Value":{"x":836,"y":100}},{"Key":"S_BUT04","Value":{"x":1098,"y":100}},{"Key":"S_BUT05","Value":{"x":1360,"y":100}},{"Key":"S_BUT_C","Value":{"x":1622,"y":100}},{"Key":"S_BUT_D","Value":{"x":1884,"y":100}},{"Key":"S_BUT_B","Value":{"x":2146,"y":100}},{"Key":"S_BUT_A","Value":{"x":2408,"y":100}},{"Key":"S_BUT_E","Value":{"x":2670,"y":100}}]},{"Key":"\/CenterPanel\/Save_old\/","Value":[{"Key":"S_END","Value":{"x":1357.5,"y":595.5}},{"Key":"S_BUT01","Value":{"x":312,"y":100}},{"Key":"S_BUT02","Value":{"x":574,"y":100}},{"Key":"S_BUT03","Value":{"x":836,"y":100}},{"Key":"S_BUT04","Value":{"x":1098,"y":100}},{"Key":"S_BUT05","Value":{"x":1360,"y":100}},{"Key":"S_BUT_C","Value":{"x":616,"y":570}},{"Key":"S_BUT_D","Value":{"x":865.5,"y":587.5}},{"Key":"S_BUT_B","Value":{"x":395,"y":582.5}},{"Key":"S_BUT_A","Value":{"x":167,"y":582.5}},{"Key":"S_BUT_E","Value":{"x":1079,"y":592.5}},{"Key":"S_BUTTON_C","Value":{"x":89.5,"y":135}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1858,7 +1858,7 @@
         <v>73</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>9</v>
